--- a/academycity/data/avic/datasets/excel/conference/output/GDP/1992_Primary_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/GDP/1992_Primary_o.xlsx
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -11684,7 +11684,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
